--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_25_8.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_25_8.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9978538145269429</v>
+        <v>0.9983068866623943</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9971786788705544</v>
+        <v>0.9982085048069685</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9971562538634938</v>
+        <v>0.9993944549637694</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9881337515569388</v>
+        <v>0.9992009005098054</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9973906146474723</v>
+        <v>0.999296666183158</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002003369932444419</v>
+        <v>0.001580446981568813</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002633579432652775</v>
+        <v>0.001672282125144406</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002680472869442006</v>
+        <v>0.0007630647119127508</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0006794704385679217</v>
+        <v>0.001356413254852412</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001679979990611811</v>
+        <v>0.001059738983382581</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00520272629981273</v>
+        <v>0.004378568096053824</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04475902068236546</v>
+        <v>0.03975483595197964</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00245278339778</v>
+        <v>1.001934986671549</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04666450485675962</v>
+        <v>0.04144728162231082</v>
       </c>
       <c r="P2" t="n">
-        <v>102.425849100326</v>
+        <v>102.9000951444495</v>
       </c>
       <c r="Q2" t="n">
-        <v>157.275261219395</v>
+        <v>157.7495072635185</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9978118796590766</v>
+        <v>0.9982739494137928</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9971364399302077</v>
+        <v>0.9981841736243172</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9971005443175577</v>
+        <v>0.9993856243669397</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9880221534664445</v>
+        <v>0.9991870926738589</v>
       </c>
       <c r="F3" t="n">
-        <v>0.997344873426163</v>
+        <v>0.9992851947829562</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002042514290869727</v>
+        <v>0.001611192457360152</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002673007629391226</v>
+        <v>0.001694994216133951</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002732983859974406</v>
+        <v>0.0007741924008917548</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0006858606303674047</v>
+        <v>0.0013798510519334</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001709429200354406</v>
+        <v>0.001077023364848116</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005253372209110711</v>
+        <v>0.004419837940158457</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04519418425936823</v>
+        <v>0.04013966189892675</v>
       </c>
       <c r="N3" t="n">
-        <v>1.002500708961055</v>
+        <v>1.00197262924138</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04711819424814818</v>
+        <v>0.04184849040651901</v>
       </c>
       <c r="P3" t="n">
-        <v>102.3871474690015</v>
+        <v>102.8615614347824</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.2365595880705</v>
+        <v>157.7109735538514</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9977690453784551</v>
+        <v>0.9982402792169421</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9970933128380942</v>
+        <v>0.9981591822508631</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9970436905389625</v>
+        <v>0.9993765013226308</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9879013324555946</v>
+        <v>0.9991729063304509</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9972978778051034</v>
+        <v>0.9992733900609094</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00208249821162215</v>
+        <v>0.001642622108169452</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002713264876818625</v>
+        <v>0.00171832256625882</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002786573387215738</v>
+        <v>0.0007856886113480779</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0006927789336225814</v>
+        <v>0.001403931337896015</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001739686020394372</v>
+        <v>0.001094809974622046</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005304519885053444</v>
+        <v>0.004461637106826789</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04563439724179722</v>
+        <v>0.04052927470569209</v>
       </c>
       <c r="N4" t="n">
-        <v>1.002549662424623</v>
+        <v>1.002011109466352</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04757714800860569</v>
+        <v>0.04225468983707803</v>
       </c>
       <c r="P4" t="n">
-        <v>102.348374085377</v>
+        <v>102.8229229349909</v>
       </c>
       <c r="Q4" t="n">
-        <v>157.1977862044461</v>
+        <v>157.67233505406</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9977252563098988</v>
+        <v>0.9982059842642298</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9970492248932652</v>
+        <v>0.9981336383804404</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9969855701507102</v>
+        <v>0.9993673121143135</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9877728944530988</v>
+        <v>0.9991585088271145</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9972496243198458</v>
+        <v>0.9992614365257555</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002123373385001564</v>
+        <v>0.001674634941151944</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002754419038079393</v>
+        <v>0.001742166648052054</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002841356801906615</v>
+        <v>0.0007972681969739308</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0007001333916303854</v>
+        <v>0.001428370052476414</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001770752681219894</v>
+        <v>0.001112820806589083</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005356218311911329</v>
+        <v>0.004503794563229876</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04608007579205534</v>
+        <v>0.04092230371266925</v>
       </c>
       <c r="N5" t="n">
-        <v>1.002599707074401</v>
+        <v>1.002050303698023</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04804180001743007</v>
+        <v>0.04266445090256443</v>
       </c>
       <c r="P5" t="n">
-        <v>102.309498471212</v>
+        <v>102.7843201660793</v>
       </c>
       <c r="Q5" t="n">
-        <v>157.158910590281</v>
+        <v>157.6337322851483</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9976805334991496</v>
+        <v>0.9981709492044011</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9970042145310075</v>
+        <v>0.9981074377808977</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9969262518977104</v>
+        <v>0.9993578659754374</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9876355389969235</v>
+        <v>0.9991437938260492</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9972000962019891</v>
+        <v>0.9992492031012639</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002165120165731424</v>
+        <v>0.001707338631640731</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002796434235520449</v>
+        <v>0.001766623757651777</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002897269306116177</v>
+        <v>0.0008091715481846962</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0007079984698389685</v>
+        <v>0.001453347696355662</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001802639978698296</v>
+        <v>0.001131253358136619</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005408424923392594</v>
+        <v>0.004546464842338627</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04653085176236756</v>
+        <v>0.0413199544002741</v>
       </c>
       <c r="N6" t="n">
-        <v>1.002650818858115</v>
+        <v>1.002090343766399</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04851176645403338</v>
+        <v>0.04307903040319101</v>
       </c>
       <c r="P6" t="n">
-        <v>102.2705588305318</v>
+        <v>102.7456389532259</v>
       </c>
       <c r="Q6" t="n">
-        <v>157.1199709496009</v>
+        <v>157.5950510722949</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9976347969515147</v>
+        <v>0.9981352215319932</v>
       </c>
       <c r="C7" t="n">
-        <v>0.996958213206487</v>
+        <v>0.998080598842561</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9968655970585562</v>
+        <v>0.999348258379505</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9874899830958984</v>
+        <v>0.9991287883738225</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9971492270738584</v>
+        <v>0.9992367291249278</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00220781322534621</v>
+        <v>0.001740688845569879</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002839374452735513</v>
+        <v>0.00179167672849593</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002954441656582543</v>
+        <v>0.0008212783560746105</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0007163331117757341</v>
+        <v>0.001478818359952772</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001835390648244582</v>
+        <v>0.001150048358013691</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005461198657425978</v>
+        <v>0.004589608128904897</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04698737304155459</v>
+        <v>0.04172156331646597</v>
       </c>
       <c r="N7" t="n">
-        <v>1.002703089198269</v>
+        <v>1.002131175392008</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04898772278920472</v>
+        <v>0.04349773664239023</v>
       </c>
       <c r="P7" t="n">
-        <v>102.2315054882305</v>
+        <v>102.7069487116805</v>
       </c>
       <c r="Q7" t="n">
-        <v>157.0809176072995</v>
+        <v>157.5563608307495</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9975881026265717</v>
+        <v>0.9980987618493745</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9969112663505701</v>
+        <v>0.9980531308716845</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9968037065027854</v>
+        <v>0.9993384147522896</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9873351349799464</v>
+        <v>0.9991134888254929</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9970970408329801</v>
+        <v>0.9992239938291476</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002251400328036487</v>
+        <v>0.001774722358899333</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002883197282005177</v>
+        <v>0.001817316873604608</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003012778775177129</v>
+        <v>0.0008336825937710793</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0007251998330282175</v>
+        <v>0.001504788230290827</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001868989304102673</v>
+        <v>0.001169237097528198</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005514486180485157</v>
+        <v>0.004633175572425387</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0474489233601405</v>
+        <v>0.04212745374336471</v>
       </c>
       <c r="N8" t="n">
-        <v>1.002756454141061</v>
+        <v>1.002172843600715</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04946892226039372</v>
+        <v>0.04392090666507106</v>
       </c>
       <c r="P8" t="n">
-        <v>102.1924057766805</v>
+        <v>102.6682225716215</v>
       </c>
       <c r="Q8" t="n">
-        <v>157.0418178957495</v>
+        <v>157.5176346906906</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9975403926435567</v>
+        <v>0.9980615728453675</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9968632840269814</v>
+        <v>0.9980250132310224</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9967405122307516</v>
+        <v>0.9993283861562905</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9871720181224034</v>
+        <v>0.9990979080732432</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9970435216113113</v>
+        <v>0.999211028786265</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002295935502954805</v>
+        <v>0.001809436661731327</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002927986674894643</v>
+        <v>0.001843563456940812</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003072344757356829</v>
+        <v>0.0008463199159504091</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0007345400287323911</v>
+        <v>0.001531235423827185</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00190344616246963</v>
+        <v>0.001188772005469488</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005568301478872335</v>
+        <v>0.004677199299721852</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04791592118445397</v>
+        <v>0.04253747361716875</v>
       </c>
       <c r="N9" t="n">
-        <v>1.002810979835935</v>
+        <v>1.00221534531958</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04995580114890699</v>
+        <v>0.04434838193376109</v>
       </c>
       <c r="P9" t="n">
-        <v>102.1532297839339</v>
+        <v>102.6294794375222</v>
       </c>
       <c r="Q9" t="n">
-        <v>157.0026419030029</v>
+        <v>157.4788915565912</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9974916323406806</v>
+        <v>0.9980236581441263</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9968143064555084</v>
+        <v>0.9979962581518972</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9966759536037751</v>
+        <v>0.999318203450447</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9869984946751161</v>
+        <v>0.9990820939483378</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9969885468149686</v>
+        <v>0.9991978542959162</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00234145110535971</v>
+        <v>0.001844828371076881</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002973705087997772</v>
+        <v>0.001870405061102132</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003133196760240336</v>
+        <v>0.000859151436375963</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0007444761137044748</v>
+        <v>0.001558078750470138</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001938840151998273</v>
+        <v>0.001208622495627117</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00562270674759108</v>
+        <v>0.00472165707090584</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04838854312086395</v>
+        <v>0.04295146529603945</v>
       </c>
       <c r="N10" t="n">
-        <v>1.002866705896365</v>
+        <v>1.002258676406713</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05044854357961222</v>
+        <v>0.04477999809548224</v>
       </c>
       <c r="P10" t="n">
-        <v>102.1139688226368</v>
+        <v>102.5907380592464</v>
       </c>
       <c r="Q10" t="n">
-        <v>156.9633809417058</v>
+        <v>157.4401501783154</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9974418066288672</v>
+        <v>0.997984991166216</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9967642664281806</v>
+        <v>0.9979668081603591</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9966099569095792</v>
+        <v>0.9993077694553496</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9868151061540863</v>
+        <v>0.9990659619356939</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9969320863122807</v>
+        <v>0.9991844104573093</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002387961220241599</v>
+        <v>0.001880922297672041</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003020415257004879</v>
+        <v>0.001897895335497658</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003195404263925072</v>
+        <v>0.0008722996136157971</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0007549770803250898</v>
+        <v>0.001585461668425077</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001975190672125081</v>
+        <v>0.001228878822732321</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00567767634502284</v>
+        <v>0.004766581537333914</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04886677010240802</v>
+        <v>0.0433696010780828</v>
       </c>
       <c r="N11" t="n">
-        <v>1.002923649567009</v>
+        <v>1.00230286723861</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05094712967382695</v>
+        <v>0.04521593478342757</v>
       </c>
       <c r="P11" t="n">
-        <v>102.0746306460269</v>
+        <v>102.5519860771382</v>
       </c>
       <c r="Q11" t="n">
-        <v>156.9240427650959</v>
+        <v>157.4013981962072</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9973909112364211</v>
+        <v>0.9979454667657168</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9967131650796758</v>
+        <v>0.9979365672228725</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9965425688334774</v>
+        <v>0.9992970357405682</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9866223611356605</v>
+        <v>0.9990493911604276</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9968741854380119</v>
+        <v>0.9991705868142984</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002435469835040447</v>
+        <v>0.001917816590617307</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003068116122744248</v>
+        <v>0.001926123923217683</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003258923263527689</v>
+        <v>0.000885825476247695</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0007660138071246316</v>
+        <v>0.001613589354013827</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00201246853532616</v>
+        <v>0.001249707415130761</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005733212503707103</v>
+        <v>0.004812100309070823</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0493504795826793</v>
+        <v>0.04379288287629974</v>
       </c>
       <c r="N12" t="n">
-        <v>1.002981815729804</v>
+        <v>1.002348037982038</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05145143166809003</v>
+        <v>0.04565723656410871</v>
       </c>
       <c r="P12" t="n">
-        <v>102.0352311806498</v>
+        <v>102.5131358648463</v>
       </c>
       <c r="Q12" t="n">
-        <v>156.8846432997188</v>
+        <v>157.3625479839153</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9973388814878138</v>
+        <v>0.9979052209542462</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9966609507805929</v>
+        <v>0.9979057197999063</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9964737233735214</v>
+        <v>0.9992861569231419</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9864193130762399</v>
+        <v>0.9990326910363557</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9968147432177453</v>
+        <v>0.9991566308417352</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002484037321523355</v>
+        <v>0.001955384289038203</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003116855878995192</v>
+        <v>0.001954918638511299</v>
       </c>
       <c r="I13" t="n">
-        <v>0.003323815971504445</v>
+        <v>0.0008995341868944834</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0007776404939116874</v>
+        <v>0.001641936599790746</v>
       </c>
       <c r="K13" t="n">
-        <v>0.002050738751164025</v>
+        <v>0.001270735393342615</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005789342780947931</v>
+        <v>0.004857978963393247</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04984011759138772</v>
+        <v>0.04421972737408275</v>
       </c>
       <c r="N13" t="n">
-        <v>1.003041278299641</v>
+        <v>1.002394033195147</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05196191458051957</v>
+        <v>0.04610225271585227</v>
       </c>
       <c r="P13" t="n">
-        <v>101.9957401805118</v>
+        <v>102.4743370751573</v>
       </c>
       <c r="Q13" t="n">
-        <v>156.8451522995809</v>
+        <v>157.3237491942263</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9972857445557534</v>
+        <v>0.9978641195071776</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9966076449703964</v>
+        <v>0.9978740702130269</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9964033889704915</v>
+        <v>0.999275018017868</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9862055306746732</v>
+        <v>0.9990155478833932</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9967537435628088</v>
+        <v>0.9991423165605909</v>
       </c>
       <c r="G14" t="n">
-        <v>0.002533638315159999</v>
+        <v>0.001993750685731694</v>
       </c>
       <c r="H14" t="n">
-        <v>0.003166614512958959</v>
+        <v>0.001984462138606873</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00339011213510698</v>
+        <v>0.0009135706417166667</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0007898818373192213</v>
+        <v>0.001671035854881731</v>
       </c>
       <c r="K14" t="n">
-        <v>0.002090011677881562</v>
+        <v>0.001292303248299199</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005846037209833474</v>
+        <v>0.004904426540120177</v>
       </c>
       <c r="M14" t="n">
-        <v>0.050335259164526</v>
+        <v>0.04465143542744952</v>
       </c>
       <c r="N14" t="n">
-        <v>1.003102006221996</v>
+        <v>1.002441006277511</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05247813535551071</v>
+        <v>0.04655233947480973</v>
       </c>
       <c r="P14" t="n">
-        <v>101.9561978800816</v>
+        <v>102.435475294981</v>
       </c>
       <c r="Q14" t="n">
-        <v>156.8056099991506</v>
+        <v>157.2848874140501</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.997231440856475</v>
+        <v>0.9978221793458911</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9965531817373935</v>
+        <v>0.9978416682890509</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9963315586176242</v>
+        <v>0.9992636196049419</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9859816233387777</v>
+        <v>0.9989980995788632</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9966912278898911</v>
+        <v>0.9991277228369488</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002584328434779533</v>
+        <v>0.002032899985332268</v>
       </c>
       <c r="H15" t="n">
-        <v>0.003217453550307658</v>
+        <v>0.002014707912358384</v>
       </c>
       <c r="I15" t="n">
-        <v>0.003457818358806597</v>
+        <v>0.00092793410959329</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0008027029421906983</v>
+        <v>0.001700653082560738</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002130260650498647</v>
+        <v>0.001314292149566019</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005903319730805641</v>
+        <v>0.0049513485519</v>
       </c>
       <c r="M15" t="n">
-        <v>0.05083629052930134</v>
+        <v>0.04508769217128182</v>
       </c>
       <c r="N15" t="n">
-        <v>1.0031640675926</v>
+        <v>1.00248893789041</v>
       </c>
       <c r="O15" t="n">
-        <v>0.05300049666276243</v>
+        <v>0.04700716857140293</v>
       </c>
       <c r="P15" t="n">
-        <v>101.9165791957917</v>
+        <v>102.3965838823049</v>
       </c>
       <c r="Q15" t="n">
-        <v>156.7659913148607</v>
+        <v>157.2459960013739</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9971759745233718</v>
+        <v>0.9977794924837385</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9964975599921253</v>
+        <v>0.9978086387563282</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9962582091599539</v>
+        <v>0.9992521640600254</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9857469463220649</v>
+        <v>0.998980475480347</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9966270750216828</v>
+        <v>0.9991129990860182</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002636103822040665</v>
+        <v>0.002072746297415022</v>
       </c>
       <c r="H16" t="n">
-        <v>0.003269374008003043</v>
+        <v>0.002045539531326114</v>
       </c>
       <c r="I16" t="n">
-        <v>0.003526956468129978</v>
+        <v>0.0009423695711337185</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0008161407272019202</v>
+        <v>0.001730568707743236</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002171563685646727</v>
+        <v>0.001336476967740811</v>
       </c>
       <c r="L16" t="n">
-        <v>0.005961190860108287</v>
+        <v>0.00499864184951053</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05134300168514366</v>
+        <v>0.04552742357541246</v>
       </c>
       <c r="N16" t="n">
-        <v>1.003227457687575</v>
+        <v>1.002537722875727</v>
       </c>
       <c r="O16" t="n">
-        <v>0.05352877956154566</v>
+        <v>0.0474656202517769</v>
       </c>
       <c r="P16" t="n">
-        <v>101.8769065538217</v>
+        <v>102.3577616745696</v>
       </c>
       <c r="Q16" t="n">
-        <v>156.7263186728908</v>
+        <v>157.2071737936386</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9971193037825965</v>
+        <v>0.9977358180748352</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9964407353445491</v>
+        <v>0.9977746625998248</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9961832847954607</v>
+        <v>0.9992402350072838</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9855017841707499</v>
+        <v>0.99896225697022</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9965613478317565</v>
+        <v>0.999097763198049</v>
       </c>
       <c r="G17" t="n">
-        <v>0.002689003470996426</v>
+        <v>0.00211351444104127</v>
       </c>
       <c r="H17" t="n">
-        <v>0.003322417322201636</v>
+        <v>0.002077254782041115</v>
       </c>
       <c r="I17" t="n">
-        <v>0.003597579061232067</v>
+        <v>0.000957401713499741</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0008301788990195492</v>
+        <v>0.001761493303395151</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002213880303929404</v>
+        <v>0.00135943344166658</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00601965728340036</v>
+        <v>0.005046628501445216</v>
       </c>
       <c r="M17" t="n">
-        <v>0.05185560211776955</v>
+        <v>0.04597297511627098</v>
       </c>
       <c r="N17" t="n">
-        <v>1.003292224248461</v>
+        <v>1.002587636485903</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05406320245581762</v>
+        <v>0.0479301398441486</v>
       </c>
       <c r="P17" t="n">
-        <v>101.8371692217663</v>
+        <v>102.3188062104387</v>
       </c>
       <c r="Q17" t="n">
-        <v>156.6865813408353</v>
+        <v>157.1682183295077</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9970614253455715</v>
+        <v>0.9976912795388866</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9963827273049953</v>
+        <v>0.9977399083052501</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9961068156296613</v>
+        <v>0.9992281612412627</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9852453159515115</v>
+        <v>0.9989437271556373</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9964939677150778</v>
+        <v>0.9990822675773474</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002743030451389446</v>
+        <v>0.002155089209333601</v>
       </c>
       <c r="H18" t="n">
-        <v>0.003376565280866438</v>
+        <v>0.002109696390489447</v>
       </c>
       <c r="I18" t="n">
-        <v>0.003669657761100123</v>
+        <v>0.0009726162132303989</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0008448644649118178</v>
+        <v>0.001792946315715071</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00225726111300597</v>
+        <v>0.001382781264472735</v>
       </c>
       <c r="L18" t="n">
-        <v>0.006078704455852137</v>
+        <v>0.00509510830080971</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05237394821272735</v>
+        <v>0.0464229383961593</v>
       </c>
       <c r="N18" t="n">
-        <v>1.003358371033632</v>
+        <v>1.002638537669844</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0546036156171621</v>
+        <v>0.04839925899241417</v>
       </c>
       <c r="P18" t="n">
-        <v>101.7973839311948</v>
+        <v>102.2798463196815</v>
       </c>
       <c r="Q18" t="n">
-        <v>156.6467960502639</v>
+        <v>157.1292584387505</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9970022944566549</v>
+        <v>0.9976457832451847</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9963234807180743</v>
+        <v>0.9977042802629558</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9960286679549123</v>
+        <v>0.9992157070931267</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9849766354021987</v>
+        <v>0.9989247620237972</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9964248159444464</v>
+        <v>0.9990663853703979</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00279822654064711</v>
+        <v>0.002197558002447786</v>
       </c>
       <c r="H19" t="n">
-        <v>0.003431869369132668</v>
+        <v>0.002142953604080817</v>
       </c>
       <c r="I19" t="n">
-        <v>0.003743318598572814</v>
+        <v>0.0009883100434014064</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0008602493181408897</v>
+        <v>0.001825138247412601</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002301782552073455</v>
+        <v>0.001406711571026289</v>
       </c>
       <c r="L19" t="n">
-        <v>0.006138373514319559</v>
+        <v>0.005144159289930798</v>
       </c>
       <c r="M19" t="n">
-        <v>0.05289826595123048</v>
+        <v>0.04687811858903667</v>
       </c>
       <c r="N19" t="n">
-        <v>1.003425949192394</v>
+        <v>1.002690533434075</v>
       </c>
       <c r="O19" t="n">
-        <v>0.05515025464728066</v>
+        <v>0.04887381714845523</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7575388816202</v>
+        <v>102.2408170680205</v>
       </c>
       <c r="Q19" t="n">
-        <v>156.6069510006892</v>
+        <v>157.0902291870895</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9969418540182008</v>
+        <v>0.9975993901706047</v>
       </c>
       <c r="C20" t="n">
-        <v>0.996262965258179</v>
+        <v>0.9976678623485274</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9959488228640008</v>
+        <v>0.9992030112900455</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9846960236159275</v>
+        <v>0.9989054623108007</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9963538889319887</v>
+        <v>0.9990501929739466</v>
       </c>
       <c r="G20" t="n">
-        <v>0.002854645036915339</v>
+        <v>0.002240863901147597</v>
       </c>
       <c r="H20" t="n">
-        <v>0.003488357894623193</v>
+        <v>0.002176948128637972</v>
       </c>
       <c r="I20" t="n">
-        <v>0.003818579395308139</v>
+        <v>0.00100430838991734</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0008763173631005047</v>
+        <v>0.001857898106284546</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002347446931084169</v>
+        <v>0.001431109251534328</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00619869136101489</v>
+        <v>0.005193697111414031</v>
       </c>
       <c r="M20" t="n">
-        <v>0.05342887830485812</v>
+        <v>0.04733776400663214</v>
       </c>
       <c r="N20" t="n">
-        <v>1.003495023979199</v>
+        <v>1.002743554090737</v>
       </c>
       <c r="O20" t="n">
-        <v>0.05570345626732123</v>
+        <v>0.04935303062307492</v>
       </c>
       <c r="P20" t="n">
-        <v>101.7176155478624</v>
+        <v>102.2017876346233</v>
       </c>
       <c r="Q20" t="n">
-        <v>156.5670276669314</v>
+        <v>157.0511997536923</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9968801272928045</v>
+        <v>0.9975520951848621</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9962011510485069</v>
+        <v>0.9976306111923477</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9958672883307589</v>
+        <v>0.9991901044476992</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9844033931707118</v>
+        <v>0.9988858454317289</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9962811634019355</v>
+        <v>0.9990337499894484</v>
       </c>
       <c r="G21" t="n">
-        <v>0.002912264225582644</v>
+        <v>0.002285011694328389</v>
       </c>
       <c r="H21" t="n">
-        <v>0.003546058746021869</v>
+        <v>0.002211720447794915</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00389543263529043</v>
+        <v>0.001020572673079472</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0008930736056402653</v>
+        <v>0.001891196331497125</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002394269235493017</v>
+        <v>0.001455884502288299</v>
       </c>
       <c r="L21" t="n">
-        <v>0.006259605983270569</v>
+        <v>0.005243708564634895</v>
       </c>
       <c r="M21" t="n">
-        <v>0.05396539841030216</v>
+        <v>0.04780179593203993</v>
       </c>
       <c r="N21" t="n">
-        <v>1.003565568808223</v>
+        <v>1.002797605503015</v>
       </c>
       <c r="O21" t="n">
-        <v>0.05626281714440375</v>
+        <v>0.04983681734822583</v>
       </c>
       <c r="P21" t="n">
-        <v>101.6776488319136</v>
+        <v>102.1627682735621</v>
       </c>
       <c r="Q21" t="n">
-        <v>156.5270609509826</v>
+        <v>157.0121803926311</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9968170633757026</v>
+        <v>0.9975038301575978</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9961380237296283</v>
+        <v>0.9975924709853626</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9957840239816886</v>
+        <v>0.999176868144632</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9840979902111933</v>
+        <v>0.998865841321496</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9962066559307039</v>
+        <v>0.9990169464209314</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00297113162401124</v>
+        <v>0.002330064978689811</v>
       </c>
       <c r="H22" t="n">
-        <v>0.003604985327225998</v>
+        <v>0.002247322656853941</v>
       </c>
       <c r="I22" t="n">
-        <v>0.003973916373979128</v>
+        <v>0.001037252119169256</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0009105612120931169</v>
+        <v>0.00192515185343688</v>
       </c>
       <c r="K22" t="n">
-        <v>0.002442238793036123</v>
+        <v>0.001481203058272517</v>
       </c>
       <c r="L22" t="n">
-        <v>0.006321165687736507</v>
+        <v>0.005294301696053411</v>
       </c>
       <c r="M22" t="n">
-        <v>0.05450808769358213</v>
+        <v>0.04827074661417421</v>
       </c>
       <c r="N22" t="n">
-        <v>1.00363764185634</v>
+        <v>1.002852765534174</v>
       </c>
       <c r="O22" t="n">
-        <v>0.05682860983399463</v>
+        <v>0.05032573223176031</v>
       </c>
       <c r="P22" t="n">
-        <v>101.6376247611018</v>
+        <v>102.1237182478874</v>
       </c>
       <c r="Q22" t="n">
-        <v>156.4870368801709</v>
+        <v>156.9731303669564</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9967526671087987</v>
+        <v>0.9974545768999004</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9960735556702739</v>
+        <v>0.9975534341111815</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9956989780566661</v>
+        <v>0.9991633396324117</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9837809564396074</v>
+        <v>0.9988454247875338</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9961303020595034</v>
+        <v>0.9989997897739875</v>
       </c>
       <c r="G23" t="n">
-        <v>0.003031242712496597</v>
+        <v>0.002376040732782201</v>
       </c>
       <c r="H23" t="n">
-        <v>0.003665163430812649</v>
+        <v>0.002283761865381322</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00405407939969831</v>
+        <v>0.0010542997864151</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0009287148077180507</v>
+        <v>0.001959807434655877</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00249139710370818</v>
+        <v>0.001507053610535488</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006383327631324262</v>
+        <v>0.00534543335360515</v>
       </c>
       <c r="M23" t="n">
-        <v>0.05505672268212664</v>
+        <v>0.04874464824759946</v>
       </c>
       <c r="N23" t="n">
-        <v>1.003711237589944</v>
+        <v>1.002909054971542</v>
       </c>
       <c r="O23" t="n">
-        <v>0.05740060134983246</v>
+        <v>0.05081980883883209</v>
       </c>
       <c r="P23" t="n">
-        <v>101.5975652148124</v>
+        <v>102.0846394684037</v>
       </c>
       <c r="Q23" t="n">
-        <v>156.4469773338814</v>
+        <v>156.9340515874727</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9966868851645005</v>
+        <v>0.9974042939575727</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9960077284586859</v>
+        <v>0.9975134489481551</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9956121191259523</v>
+        <v>0.999149513218872</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9834503986355958</v>
+        <v>0.9988246131810746</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9960520133556079</v>
+        <v>0.9989822853075893</v>
       </c>
       <c r="G24" t="n">
-        <v>0.003092647270005355</v>
+        <v>0.00242297765227905</v>
       </c>
       <c r="H24" t="n">
-        <v>0.003726610243349384</v>
+        <v>0.002321086259920709</v>
       </c>
       <c r="I24" t="n">
-        <v>0.004135951337652982</v>
+        <v>0.001071722847679236</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0009476427997571143</v>
+        <v>0.001995133622699342</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002541801102453652</v>
+        <v>0.001533428235189289</v>
       </c>
       <c r="L24" t="n">
-        <v>0.006446134813024649</v>
+        <v>0.005397144089499964</v>
       </c>
       <c r="M24" t="n">
-        <v>0.05561157496425861</v>
+        <v>0.04922375089607708</v>
       </c>
       <c r="N24" t="n">
-        <v>1.003786416954856</v>
+        <v>1.002966521191345</v>
       </c>
       <c r="O24" t="n">
-        <v>0.05797907484231736</v>
+        <v>0.05131930787893461</v>
       </c>
       <c r="P24" t="n">
-        <v>101.5574556663289</v>
+        <v>102.0455161207041</v>
       </c>
       <c r="Q24" t="n">
-        <v>156.4068677853979</v>
+        <v>156.8949282397731</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9966197116477842</v>
+        <v>0.9973530403131203</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9959404855242793</v>
+        <v>0.9974725899511547</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9955234805247281</v>
+        <v>0.9991354117017406</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9831075199712644</v>
+        <v>0.9988034598962588</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9959718784292998</v>
+        <v>0.9989644640704001</v>
       </c>
       <c r="G25" t="n">
-        <v>0.003155350799283521</v>
+        <v>0.002470820679600275</v>
       </c>
       <c r="H25" t="n">
-        <v>0.003789378570994282</v>
+        <v>0.002359226340117773</v>
       </c>
       <c r="I25" t="n">
-        <v>0.004219500766596994</v>
+        <v>0.001089492574889691</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0009672762936576236</v>
+        <v>0.002031039784897913</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002593393740013434</v>
+        <v>0.001560280150068439</v>
       </c>
       <c r="L25" t="n">
-        <v>0.006509560661313457</v>
+        <v>0.005449373512688898</v>
       </c>
       <c r="M25" t="n">
-        <v>0.05617250928419987</v>
+        <v>0.04970735035787237</v>
       </c>
       <c r="N25" t="n">
-        <v>1.003863186688247</v>
+        <v>1.003025096785005</v>
       </c>
       <c r="O25" t="n">
-        <v>0.05856388929755264</v>
+        <v>0.05182349517100742</v>
       </c>
       <c r="P25" t="n">
-        <v>101.517311201615</v>
+        <v>102.0064098491611</v>
       </c>
       <c r="Q25" t="n">
-        <v>156.366723320684</v>
+        <v>156.8558219682301</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9965510760816867</v>
+        <v>0.9973006790466403</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9958718446960866</v>
+        <v>0.997430707576302</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9954329170916749</v>
+        <v>0.9991209146932545</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9827504478312197</v>
+        <v>0.9987817692980108</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9958897175612195</v>
+        <v>0.9989461977261929</v>
       </c>
       <c r="G26" t="n">
-        <v>0.003219419087482277</v>
+        <v>0.002519697623465412</v>
       </c>
       <c r="H26" t="n">
-        <v>0.003853451771128033</v>
+        <v>0.002398321698618987</v>
       </c>
       <c r="I26" t="n">
-        <v>0.004304864513432942</v>
+        <v>0.001107760672127968</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0009877225168056386</v>
+        <v>0.002067857997561597</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002646290723685292</v>
+        <v>0.001587802724096236</v>
       </c>
       <c r="L26" t="n">
-        <v>0.006573653746273386</v>
+        <v>0.00550222821711898</v>
       </c>
       <c r="M26" t="n">
-        <v>0.05673992498657605</v>
+        <v>0.05019658975931943</v>
       </c>
       <c r="N26" t="n">
-        <v>1.003941627335215</v>
+        <v>1.003084938232411</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0591554610610914</v>
+        <v>0.05233356250663925</v>
       </c>
       <c r="P26" t="n">
-        <v>101.4771086866309</v>
+        <v>101.9672327506932</v>
       </c>
       <c r="Q26" t="n">
-        <v>156.3265208056999</v>
+        <v>156.8166448697622</v>
       </c>
     </row>
   </sheetData>
